--- a/pred_ohlcv/54_21/2020-01-21 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WAVES ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-317.9109999999993</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>850.7080000000005</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>680.0383000000005</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>472.4200000000005</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1091.667499999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9233.6675</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9190.5646</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9189.964599999999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-7660.265899999999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9263.2135</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9263.2135</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1849.3007</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2050.3007</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4463.6993</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4998.6993</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3716.6993</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4322.7344</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2640.0377</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4055.276907430001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4105.276907430001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-6808.433492569999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2503.881892569997</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4278.195592569997</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-5368.695592569997</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>9.355907430002844</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6460.043407430003</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3729.554992569998</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-22006.48889257</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-23276.47719257</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-35162.21012723001</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-35220.44302723002</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-35171.82452723002</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-35991.06632723002</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-46172.39252723003</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-46612.46542723002</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-46119.84442723003</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-45891.44332723002</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-44452.24037378002</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-45001.72237378002</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WAVES ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-317.9109999999993</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>850.7080000000005</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>680.0383000000005</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>472.4200000000005</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1849.3007</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2050.3007</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4463.6993</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4998.6993</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3716.6993</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4322.7344</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2640.0377</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4055.276907430001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4105.276907430001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4278.195592569997</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-5368.695592569997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>9.355907430002844</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6460.043407430003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3729.554992569998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-22006.48889257</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-23276.47719257</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-33920.52292723001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-35162.21012723001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-35220.44302723002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-35171.82452723002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-35991.06632723002</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-46172.39252723003</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-46612.46542723002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-46119.84442723003</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-45891.44332723002</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-44452.24037378002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-45001.72237378002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
